--- a/exposan/htl/data/geo_impact_items.xlsx
+++ b/exposan/htl/data/geo_impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659D6581-F99F-BC42-B1B6-CC7D66BA1A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47FFD32-2FB8-7B4E-8FA4-96CF2862F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="4640" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="25980" yWindow="500" windowWidth="25220" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -100,9 +100,6 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>Concrete</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -115,39 +112,12 @@
     <t>GLO</t>
   </si>
   <si>
-    <t>market for steel, low-alloyed</t>
-  </si>
-  <si>
-    <t>market for steel, chromium steel 18/8</t>
-  </si>
-  <si>
-    <t>2500 kg/m2</t>
-  </si>
-  <si>
-    <t>7850 kg/m3</t>
-  </si>
-  <si>
-    <t>market for reinforcing steel</t>
-  </si>
-  <si>
-    <t>market group for concrete, normal</t>
-  </si>
-  <si>
-    <t>market for blast furnace</t>
-  </si>
-  <si>
-    <t>linearly scale other parameters based on 1.26 kg CO2 eq/kg (Jouni Havukainen 2018)</t>
-  </si>
-  <si>
     <t>market for magnesium chloride, from titanium sponge production</t>
   </si>
   <si>
     <t>market for magnesium oxide</t>
   </si>
   <si>
-    <t>sodium hydroxide to generic market for neutralising agent</t>
-  </si>
-  <si>
     <t>market for hydrogen, gaseous</t>
   </si>
   <si>
@@ -178,15 +148,6 @@
     <t>monoammonium phosphate production</t>
   </si>
   <si>
-    <t>medium voltage</t>
-  </si>
-  <si>
-    <t>market group for electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>calculated based on SS 2016 Life cycle greenhouse gas emissions analysis of catalysts for hydrotreating of fast pyrolysis bio-oil</t>
-  </si>
-  <si>
     <t>Al2O3</t>
   </si>
   <si>
@@ -211,12 +172,6 @@
     <t>market for water, deionised</t>
   </si>
   <si>
-    <t>purification of wet-process phosphoric acid to industrial grade, product in 85% solution state</t>
-  </si>
-  <si>
-    <t>molybdenum trioxide production</t>
-  </si>
-  <si>
     <t>market for cobalt oxide</t>
   </si>
   <si>
@@ -253,24 +208,6 @@
     <t>Rhodium</t>
   </si>
   <si>
-    <t>ea</t>
-  </si>
-  <si>
-    <t>air compressor production, screw-type compressor, 300kW</t>
-  </si>
-  <si>
-    <t>air compressor production, screw-type compressor, 4kW</t>
-  </si>
-  <si>
-    <t>Furnace</t>
-  </si>
-  <si>
-    <t>Compressor_4kW</t>
-  </si>
-  <si>
-    <t>Compressor_300kW</t>
-  </si>
-  <si>
     <t>Struvite</t>
   </si>
   <si>
@@ -292,15 +229,6 @@
     <t>Steam</t>
   </si>
   <si>
-    <t>Stainless_steel</t>
-  </si>
-  <si>
-    <t>Carbon_steel</t>
-  </si>
-  <si>
-    <t>Reinforcing_steel</t>
-  </si>
-  <si>
     <t>NH42SO4</t>
   </si>
   <si>
@@ -340,9 +268,6 @@
     <t>ton*km</t>
   </si>
   <si>
-    <t>transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
@@ -352,10 +277,37 @@
     <t>market for petroleum</t>
   </si>
   <si>
-    <t>heat and power co-generation, natural gas, mini-plant 2KW electrical</t>
-  </si>
-  <si>
-    <t>1 kg natural gas/CH4 = 54.2100427046263 MJ (arbitrary value, natural gas: 42-55 MJ/kg [source: https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels.aspx], CH4: 55.5 MJ/kg [source: BioSTEAM], note by comparing CHP of different size, we can see the size does not have a relationship with LCIA)</t>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>market for sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>market for natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>39 MJ/m3, natural gas density: 0.678 kg/m3 (https://en.wikipedia.org/wiki/Natural_gas, accessed 06-02-2024)</t>
+  </si>
+  <si>
+    <t>market group for electricity, high voltage</t>
+  </si>
+  <si>
+    <t>high voltage</t>
+  </si>
+  <si>
+    <t>market for phosphoric acid, industrial grade, without water, in 85% solution state</t>
+  </si>
+  <si>
+    <t>market for molybdenum trioxide</t>
+  </si>
+  <si>
+    <t>market for transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%</t>
+  </si>
+  <si>
+    <t>calculated based on Snowden-Swan et al. 2016 Life cycle greenhouse gas emissions analysis of catalysts for hydrotreating of fast pyrolysis bio-oil</t>
   </si>
 </sst>
 </file>
@@ -419,12 +371,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -440,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -458,6 +416,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -773,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,613 +757,506 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="D12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
+    </row>
+    <row r="13" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
+      <c r="C15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="D26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>25</v>
+      <c r="E26" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>25</v>
+      <c r="C28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>25</v>
+      <c r="E31" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1411,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1282,7 @@
     <col min="16" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1452,99 +1305,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>1.26</v>
+        <v>2.2709134999999998</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D5" si="0">C2*0.9</f>
-        <v>1.1340000000000001</v>
+        <f t="shared" ref="D2:D8" si="0">C2*0.9</f>
+        <v>2.04382215</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E5" si="1">C2*1.1</f>
-        <v>1.3860000000000001</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E2:E8" si="1">C2*1.1</f>
+        <v>2.4980048500000001</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <f>282.37/2500</f>
-        <v>0.11294800000000001</v>
+        <f>0.10261503/20+19/20*C17</f>
+        <v>5.4179175000000001E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>0.10165320000000001</v>
+        <v>4.8761257499999999E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>0.12424280000000001</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5.9597092500000004E-3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>670.18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>603.16199999999992</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>737.19799999999998</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>12540</v>
+        <v>1.5621537000000001</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>11286</v>
+        <v>1.4059383300000001</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>13794.000000000002</v>
+        <v>1.7183690700000003</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
@@ -1553,48 +1406,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>4.8562000000000003</v>
+        <v>1.1605114000000001</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D15" si="2">C6*0.9</f>
-        <v>4.3705800000000004</v>
+        <f t="shared" si="0"/>
+        <v>1.0444602600000001</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E15" si="3">C6*1.1</f>
-        <v>5.3418200000000011</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1.2765625400000002</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>2.0028000000000001</v>
+        <v>1.2497984</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8025200000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.12481856</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
-        <v>2.2030800000000004</v>
+        <f t="shared" si="1"/>
+        <v>1.3747782400000002</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
@@ -1603,99 +1456,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>2.169</v>
+        <v>1.5195637</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8" si="4">C8*0.9</f>
-        <v>1.9521000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.36760733</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8" si="5">C8*1.1</f>
-        <v>2.3859000000000004</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1.6715200700000001</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>2.2663000000000002</v>
+        <f>-0.89786*115.03/245.41</f>
+        <v>-0.42085015199054648</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>2.0396700000000001</v>
+        <f t="shared" ref="D9:D10" si="2">C9*0.9</f>
+        <v>-0.37876513679149182</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
-        <v>2.4929300000000003</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E9:E10" si="3">C9*1.1</f>
+        <v>-0.46293516718960115</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <f>0.15837/20+19/20*C24</f>
-        <v>8.2056660000000003E-3</v>
+        <v>-1.1391192999999999</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>7.3850994000000001E-3</v>
+        <v>-1.02520737</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="3"/>
-        <v>9.0262326000000014E-3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-1.2530312299999999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>2.8778999999999999</v>
+        <v>1.584234288</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>2.5901100000000001</v>
+        <f>C11*0.9</f>
+        <v>1.4258108592000001</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="3"/>
-        <v>3.1656900000000001</v>
+        <f>C11*1.1</f>
+        <v>1.7426577168000001</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
@@ -1703,24 +1557,27 @@
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>1.5624</v>
+        <v>0.48748859</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4061600000000001</v>
+        <f>C12*0.9</f>
+        <v>0.43873973100000002</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7186400000000002</v>
+        <f>C12*1.1</f>
+        <v>0.53623744900000003</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1</v>
@@ -1728,24 +1585,25 @@
       <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>1.1606000000000001</v>
+        <v>-0.46772893999999998</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>1.04454</v>
+        <f>C13*0.9</f>
+        <v>-0.42095604599999997</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2766600000000001</v>
+        <f>C13*1.1</f>
+        <v>-0.51450183400000005</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>1</v>
@@ -1753,24 +1611,27 @@
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J13" s="5"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>1.2514000000000001</v>
+        <f>0.147*C30+0.1222*C28+87.3/3600*C31+2.3704*C30+0.312*C29+(1000-1000*7.8/100/101.07*207.43)/1000*C24+0.9454*C17+1000*7.8/100/1000*C25/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C26+0.487*1000*7.8/100/101.07*207.43/1000*C31+2.59/1000*C27</f>
+        <v>471.10369712348376</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>1.12626</v>
+        <f>C14*0.9</f>
+        <v>423.9933274111354</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3765400000000001</v>
+        <f>C14*1.1</f>
+        <v>518.21406683583223</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
@@ -1778,101 +1639,102 @@
       <c r="G14" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>1.5249999999999999</v>
+        <f>0.4168*C29+3.358*C28+0.206*C30+1.6569*C30+0.4856*C29+0.0149*C31+1.2669*C29+0.7722*C16+0.6177*C17+0.0349*C18+0.136*C19+0.0834*C20+0.0973*C21+0.0088*C22+1.301*C23</f>
+        <v>5.9775493341899999</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3725000000000001</v>
+        <f>C15*0.9</f>
+        <v>5.3797944007709999</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>1.6775</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <f>C15*1.1</f>
+        <v>6.5753042676090008</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <f>-0.89786*115.03/245.41</f>
-        <v>-0.42085015199054648</v>
+        <v>1.4810466</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="6">C16*0.9</f>
-        <v>-0.37876513679149182</v>
+        <f t="shared" ref="D16:D30" si="4">C16*0.9</f>
+        <v>1.33294194</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
-        <v>-0.46293516718960115</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E16:E30" si="5">C16*1.1</f>
+        <v>1.6291512600000002</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.2499</v>
+        <v>3.0227999999999999E-4</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>-1.1249100000000001</v>
+        <f t="shared" si="4"/>
+        <v>2.72052E-4</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="7"/>
-        <v>-1.3748900000000002</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3.3250800000000002E-4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>1.584234288</v>
+        <v>1.3560825000000001</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>1.4258108592000001</v>
+        <f t="shared" si="4"/>
+        <v>1.2204742500000001</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>1.7426577168000001</v>
+        <f t="shared" si="5"/>
+        <v>1.4916907500000003</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -1880,27 +1742,24 @@
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>0.67847999999999997</v>
+        <v>7.9620949000000003</v>
       </c>
       <c r="D19" s="2">
-        <f>C19*0.9</f>
-        <v>0.61063199999999995</v>
+        <f t="shared" si="4"/>
+        <v>7.1658854100000005</v>
       </c>
       <c r="E19" s="2">
-        <f>C19*1.1</f>
-        <v>0.74632799999999999</v>
+        <f t="shared" si="5"/>
+        <v>8.758304390000001</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -1908,25 +1767,25 @@
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.47693999999999998</v>
+        <v>30.095762000000001</v>
       </c>
       <c r="D20" s="2">
-        <f>C20*0.9</f>
-        <v>-0.42924599999999996</v>
+        <f t="shared" si="4"/>
+        <v>27.086185800000003</v>
       </c>
       <c r="E20" s="2">
-        <f>C20*1.1</f>
-        <v>-0.52463400000000004</v>
+        <f t="shared" si="5"/>
+        <v>33.105338200000006</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -1934,27 +1793,24 @@
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>484.7595334326262</v>
+        <v>0.12410437000000001</v>
       </c>
       <c r="D21" s="2">
-        <f>C21*0.9</f>
-        <v>436.28358008936357</v>
+        <f t="shared" si="4"/>
+        <v>0.11169393300000001</v>
       </c>
       <c r="E21" s="2">
-        <f>C21*1.1</f>
-        <v>533.23548677588883</v>
+        <f t="shared" si="5"/>
+        <v>0.13651480700000002</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -1962,26 +1818,24 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>6.1901145644560005</v>
+        <v>1.5621537000000001</v>
       </c>
       <c r="D22" s="2">
-        <f>C22*0.9</f>
-        <v>5.5711031080104005</v>
+        <f t="shared" si="4"/>
+        <v>1.4059383300000001</v>
       </c>
       <c r="E22" s="2">
-        <f>C22*1.1</f>
-        <v>6.8091260209016014</v>
+        <f t="shared" si="5"/>
+        <v>1.7183690700000003</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -1989,25 +1843,24 @@
       <c r="G22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>1.5975999999999999</v>
+        <v>0.46772893999999998</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D37" si="8">C23*0.9</f>
-        <v>1.43784</v>
+        <f t="shared" si="4"/>
+        <v>0.42095604599999997</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E37" si="9">C23*1.1</f>
-        <v>1.75736</v>
+        <f t="shared" si="5"/>
+        <v>0.51450183400000005</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -2015,24 +1868,25 @@
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>3.0227999999999999E-4</v>
+        <v>3.2395651999999999</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
-        <v>2.72052E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.9156086800000001</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3250800000000002E-4</v>
+        <f t="shared" si="5"/>
+        <v>3.5635217200000002</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -2040,24 +1894,25 @@
       <c r="G24" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>1.3290999999999999</v>
+        <v>79553.031000000003</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="8"/>
-        <v>1.1961900000000001</v>
+        <f t="shared" si="4"/>
+        <v>71597.727899999998</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="9"/>
-        <v>1.46201</v>
+        <f t="shared" si="5"/>
+        <v>87508.334100000007</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -2065,24 +1920,25 @@
       <c r="G25" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>7.9394999999999998</v>
+        <v>0.58090182000000001</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
-        <v>7.1455500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.52281163800000008</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="9"/>
-        <v>8.7334500000000013</v>
+        <f t="shared" si="5"/>
+        <v>0.63899200200000006</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -2090,25 +1946,25 @@
       <c r="G26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>31.053000000000001</v>
+        <v>0.41977999999999999</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
-        <v>27.947700000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.37780199999999997</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="9"/>
-        <v>34.158300000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.461758</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2117,23 +1973,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>0.12414</v>
+        <v>6.5877932E-2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="8"/>
-        <v>0.11172600000000001</v>
+        <f t="shared" si="4"/>
+        <v>5.9290138800000003E-2</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="9"/>
-        <v>0.13655400000000001</v>
+        <f t="shared" si="5"/>
+        <v>7.2465725200000011E-2</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -2141,24 +1997,25 @@
       <c r="G28" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>1.5624</v>
+        <v>6.4337000000000005E-2</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4061600000000001</v>
+        <f t="shared" si="4"/>
+        <v>5.7903300000000005E-2</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7186400000000002</v>
+        <f t="shared" si="5"/>
+        <v>7.0770700000000006E-2</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -2167,23 +2024,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>0.47693999999999998</v>
+        <v>0.10261104</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="8"/>
-        <v>0.42924599999999996</v>
+        <f t="shared" si="4"/>
+        <v>9.2349936000000007E-2</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="9"/>
-        <v>0.52463400000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.11287214400000001</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -2191,25 +2048,24 @@
       <c r="G30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>2.9998</v>
+        <v>0.48748859</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="8"/>
-        <v>2.6998199999999999</v>
+        <f>C31*0.9</f>
+        <v>0.43873973100000002</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="9"/>
-        <v>3.2997800000000002</v>
+        <f>C31*1.1</f>
+        <v>0.53623744900000003</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -2217,25 +2073,24 @@
       <c r="G31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>81893</v>
+        <v>0.35674821000000001</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="8"/>
-        <v>73703.7</v>
+        <f t="shared" ref="D32" si="6">C32*0.9</f>
+        <v>0.32107338900000004</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="9"/>
-        <v>90082.3</v>
+        <f t="shared" ref="E32" si="7">C32*1.1</f>
+        <v>0.39242303100000003</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -2243,25 +2098,24 @@
       <c r="G32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>0.94164000000000003</v>
+        <v>0.12772243</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="8"/>
-        <v>0.84747600000000001</v>
+        <f t="shared" ref="D33" si="8">C33*0.9</f>
+        <v>0.114950187</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0358040000000002</v>
+        <f t="shared" ref="E33" si="9">C33*1.1</f>
+        <v>0.14049467300000001</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -2269,25 +2123,24 @@
       <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>0.41977999999999999</v>
+        <v>0.22290007000000001</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="8"/>
-        <v>0.37780199999999997</v>
+        <f t="shared" ref="D34" si="10">C34*0.9</f>
+        <v>0.20061006300000001</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="9"/>
-        <v>0.461758</v>
+        <f t="shared" ref="E34" si="11">C34*1.1</f>
+        <v>0.24519007700000003</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -2296,252 +2149,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6.6032999999999994E-2</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="8"/>
-        <v>5.9429699999999995E-2</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="9"/>
-        <v>7.2636300000000001E-2</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2">
-        <v>6.4337000000000005E-2</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="8"/>
-        <v>5.7903300000000005E-2</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="9"/>
-        <v>7.0770700000000006E-2</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.11946</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="8"/>
-        <v>0.107514</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="9"/>
-        <v>0.131406</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.67847999999999997</v>
-      </c>
-      <c r="D38" s="2">
-        <f>C38*0.9</f>
-        <v>0.61063199999999995</v>
-      </c>
-      <c r="E38" s="2">
-        <f>C38*1.1</f>
-        <v>0.74632799999999999</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="N37" s="9"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.36864999999999998</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" ref="D39" si="10">C39*0.9</f>
-        <v>0.331785</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" ref="E39" si="11">C39*1.1</f>
-        <v>0.40551500000000001</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.12917000000000001</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" ref="D40" si="12">C40*0.9</f>
-        <v>0.11625300000000001</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" ref="E40" si="13">C40*1.1</f>
-        <v>0.14208700000000002</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.22303999999999999</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" ref="D41" si="14">C41*0.9</f>
-        <v>0.200736</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" ref="E41" si="15">C41*1.1</f>
-        <v>0.24534400000000001</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N44" s="9"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+    </row>
+    <row r="45" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="G45" s="5"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-    </row>
-    <row r="50" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-    </row>
-    <row r="52" spans="7:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="G52" s="5"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-    </row>
-    <row r="55" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="N58" s="6"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/exposan/htl/data/geo_impact_items.xlsx
+++ b/exposan/htl/data/geo_impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47FFD32-2FB8-7B4E-8FA4-96CF2862F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDACCC-E543-5440-B0DB-AE3E011ED926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25980" yWindow="500" windowWidth="25220" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="22140" yWindow="500" windowWidth="25220" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -130,9 +130,6 @@
     <t>RoW</t>
   </si>
   <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>market for ammonium chloride</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>Diesel_for_calc</t>
   </si>
   <si>
-    <t>market for natural gas, burned in gas motor, for storage</t>
-  </si>
-  <si>
     <t>market for naphtha</t>
   </si>
   <si>
@@ -286,12 +280,6 @@
     <t>US</t>
   </si>
   <si>
-    <t>market for natural gas, high pressure</t>
-  </si>
-  <si>
-    <t>39 MJ/m3, natural gas density: 0.678 kg/m3 (https://en.wikipedia.org/wiki/Natural_gas, accessed 06-02-2024)</t>
-  </si>
-  <si>
     <t>market group for electricity, high voltage</t>
   </si>
   <si>
@@ -308,6 +296,21 @@
   </si>
   <si>
     <t>calculated based on Snowden-Swan et al. 2016 Life cycle greenhouse gas emissions analysis of catalysts for hydrotreating of fast pyrolysis bio-oil</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>this is for liquid, however, the value has minimal impact on the results</t>
+  </si>
+  <si>
+    <t>heat production, natural gas, at industrial furnace &gt;100kW</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, natural gas, 1MW electrical, lean burn</t>
+  </si>
+  <si>
+    <t>48.5 MJ/kg (https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels, accessed 07-31-2024)</t>
   </si>
 </sst>
 </file>
@@ -413,11 +416,11 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -736,7 +739,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,490 +769,490 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
+    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="16" t="s">
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E12" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="B25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="16" t="s">
+    <row r="26" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="16" t="s">
+    </row>
+    <row r="29" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="D31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+    </row>
+    <row r="34" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1267,7 +1270,7 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,15 +1342,15 @@
       </c>
       <c r="C3" s="2">
         <f>0.10261503/20+19/20*C17</f>
-        <v>5.4179175000000001E-3</v>
+        <v>5.5298725680000002E-3</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>4.8761257499999999E-3</v>
+        <v>4.9768853112000001E-3</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>5.9597092500000004E-3</v>
+        <v>6.0828598248000004E-3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -1483,22 +1486,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <f>-0.89786*115.03/245.41</f>
-        <v>-0.42085015199054648</v>
+        <f>-0.88651331*115.03/245.41</f>
+        <v>-0.41553166557719734</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D10" si="2">C9*0.9</f>
-        <v>-0.37876513679149182</v>
+        <v>-0.37397849901947761</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E10" si="3">C9*1.1</f>
-        <v>-0.46293516718960115</v>
+        <v>-0.45708483213491713</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1535,21 +1538,22 @@
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>1.584234288</v>
+        <f>0.026653427*48.5</f>
+        <v>1.2926912095</v>
       </c>
       <c r="D11" s="2">
         <f>C11*0.9</f>
-        <v>1.4258108592000001</v>
+        <v>1.1634220885500002</v>
       </c>
       <c r="E11" s="2">
         <f>C11*1.1</f>
-        <v>1.7426577168000001</v>
+        <v>1.4219603304500001</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
@@ -1563,7 +1567,7 @@
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1589,7 +1593,7 @@
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1616,22 +1620,22 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
         <f>0.147*C30+0.1222*C28+87.3/3600*C31+2.3704*C30+0.312*C29+(1000-1000*7.8/100/101.07*207.43)/1000*C24+0.9454*C17+1000*7.8/100/1000*C25/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C26+0.487*1000*7.8/100/101.07*207.43/1000*C31+2.59/1000*C27</f>
-        <v>471.10369712348376</v>
+        <v>471.10484135821974</v>
       </c>
       <c r="D14" s="2">
         <f>C14*0.9</f>
-        <v>423.9933274111354</v>
+        <v>423.99435722239775</v>
       </c>
       <c r="E14" s="2">
         <f>C14*1.1</f>
-        <v>518.21406683583223</v>
+        <v>518.21532549404174</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
@@ -1643,22 +1647,22 @@
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2">
         <f>0.4168*C29+3.358*C28+0.206*C30+1.6569*C30+0.4856*C29+0.0149*C31+1.2669*C29+0.7722*C16+0.6177*C17+0.0349*C18+0.136*C19+0.0834*C20+0.0973*C21+0.0088*C22+1.301*C23</f>
-        <v>5.9775493341899999</v>
+        <v>5.9884408658522883</v>
       </c>
       <c r="D15" s="2">
         <f>C15*0.9</f>
-        <v>5.3797944007709999</v>
+        <v>5.3895967792670598</v>
       </c>
       <c r="E15" s="2">
         <f>C15*1.1</f>
-        <v>6.5753042676090008</v>
+        <v>6.5872849524375177</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
@@ -1670,7 +1674,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1679,11 +1683,11 @@
         <v>1.4810466</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D30" si="4">C16*0.9</f>
+        <f>C16*0.9</f>
         <v>1.33294194</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:E30" si="5">C16*1.1</f>
+        <f>C16*1.1</f>
         <v>1.6291512600000002</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1695,21 +1699,21 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>3.0227999999999999E-4</v>
+        <v>4.2012743999999999E-4</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="4"/>
-        <v>2.72052E-4</v>
+        <f>C17*0.9</f>
+        <v>3.7811469600000002E-4</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="5"/>
-        <v>3.3250800000000002E-4</v>
+        <f>C17*1.1</f>
+        <v>4.6214018400000001E-4</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -1720,7 +1724,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -1729,11 +1733,11 @@
         <v>1.3560825000000001</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="4"/>
+        <f>C18*0.9</f>
         <v>1.2204742500000001</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="5"/>
+        <f>C18*1.1</f>
         <v>1.4916907500000003</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1745,7 +1749,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -1754,11 +1758,11 @@
         <v>7.9620949000000003</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="4"/>
+        <f>C19*0.9</f>
         <v>7.1658854100000005</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="5"/>
+        <f>C19*1.1</f>
         <v>8.758304390000001</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1771,7 +1775,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -1780,11 +1784,11 @@
         <v>30.095762000000001</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="4"/>
+        <f>C20*0.9</f>
         <v>27.086185800000003</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="5"/>
+        <f>C20*1.1</f>
         <v>33.105338200000006</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1796,7 +1800,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1805,11 +1809,11 @@
         <v>0.12410437000000001</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="4"/>
+        <f>C21*0.9</f>
         <v>0.11169393300000001</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="5"/>
+        <f>C21*1.1</f>
         <v>0.13651480700000002</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1821,7 +1825,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -1830,11 +1834,11 @@
         <v>1.5621537000000001</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="4"/>
+        <f>C22*0.9</f>
         <v>1.4059383300000001</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="5"/>
+        <f>C22*1.1</f>
         <v>1.7183690700000003</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1846,7 +1850,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -1855,11 +1859,11 @@
         <v>0.46772893999999998</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="4"/>
+        <f>C23*0.9</f>
         <v>0.42095604599999997</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="5"/>
+        <f>C23*1.1</f>
         <v>0.51450183400000005</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1872,7 +1876,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -1881,11 +1885,11 @@
         <v>3.2395651999999999</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="4"/>
+        <f>C24*0.9</f>
         <v>2.9156086800000001</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="5"/>
+        <f>C24*1.1</f>
         <v>3.5635217200000002</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1898,7 +1902,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
@@ -1907,11 +1911,11 @@
         <v>79553.031000000003</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="4"/>
+        <f>C25*0.9</f>
         <v>71597.727899999998</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="5"/>
+        <f>C25*1.1</f>
         <v>87508.334100000007</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1924,7 +1928,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1933,11 +1937,11 @@
         <v>0.58090182000000001</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="4"/>
+        <f>C26*0.9</f>
         <v>0.52281163800000008</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="5"/>
+        <f>C26*1.1</f>
         <v>0.63899200200000006</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1950,21 +1954,21 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>0.41977999999999999</v>
+        <v>0.21777796999999999</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="4"/>
-        <v>0.37780199999999997</v>
+        <f>C27*0.9</f>
+        <v>0.196000173</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="5"/>
-        <v>0.461758</v>
+        <f>C27*1.1</f>
+        <v>0.239555767</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -1975,7 +1979,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
@@ -1984,11 +1988,11 @@
         <v>6.5877932E-2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="4"/>
+        <f>C28*0.9</f>
         <v>5.9290138800000003E-2</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="5"/>
+        <f>C28*1.1</f>
         <v>7.2465725200000011E-2</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2001,21 +2005,21 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>6.4337000000000005E-2</v>
+        <v>6.9324202000000001E-2</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="4"/>
-        <v>5.7903300000000005E-2</v>
+        <f>C29*0.9</f>
+        <v>6.2391781800000004E-2</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="5"/>
-        <v>7.0770700000000006E-2</v>
+        <f>C29*1.1</f>
+        <v>7.6256622200000013E-2</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -2026,7 +2030,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -2035,11 +2039,11 @@
         <v>0.10261104</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="4"/>
+        <f>C30*0.9</f>
         <v>9.2349936000000007E-2</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="5"/>
+        <f>C30*1.1</f>
         <v>0.11287214400000001</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2051,7 +2055,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -2076,7 +2080,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -2085,11 +2089,11 @@
         <v>0.35674821000000001</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32" si="6">C32*0.9</f>
+        <f t="shared" ref="D32" si="4">C32*0.9</f>
         <v>0.32107338900000004</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ref="E32" si="7">C32*1.1</f>
+        <f t="shared" ref="E32" si="5">C32*1.1</f>
         <v>0.39242303100000003</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -2101,7 +2105,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -2110,11 +2114,11 @@
         <v>0.12772243</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33" si="8">C33*0.9</f>
+        <f t="shared" ref="D33" si="6">C33*0.9</f>
         <v>0.114950187</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ref="E33" si="9">C33*1.1</f>
+        <f t="shared" ref="E33" si="7">C33*1.1</f>
         <v>0.14049467300000001</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2126,7 +2130,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -2135,11 +2139,11 @@
         <v>0.22290007000000001</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34" si="10">C34*0.9</f>
+        <f t="shared" ref="D34" si="8">C34*0.9</f>
         <v>0.20061006300000001</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34" si="11">C34*1.1</f>
+        <f t="shared" ref="E34" si="9">C34*1.1</f>
         <v>0.24519007700000003</v>
       </c>
       <c r="F34" s="2" t="s">
